--- a/digital-objects/omap/3-kidney-codex/v1.3/raw/omap-3-kidney-codex.xlsx
+++ b/digital-objects/omap/3-kidney-codex/v1.3/raw/omap-3-kidney-codex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenmq/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenmq/Documents/GitHub/hra-kg/digital-objects/omap/3-kidney-codex/v1.3/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902CD9FF-B4C7-8F47-9FED-E7C017048BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D06347-6ACD-AA4A-A688-18BE689D73EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="760" windowWidth="34560" windowHeight="20740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8740" yWindow="760" windowWidth="34560" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="omap-3-kidney-codex" sheetId="1" r:id="rId1"/>
